--- a/data_excel/60.xlsx
+++ b/data_excel/60.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kokoronight\Desktop\前100題example excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AI_DATA\excel\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
   <si>
     <t>1</t>
   </si>
@@ -128,7 +128,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,6 +150,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -159,7 +167,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -182,13 +190,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -494,7 +542,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -599,7 +647,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -619,7 +667,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -629,11 +677,14 @@
       <c r="C7" t="s">
         <v>27</v>
       </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
+      <c r="E7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -641,6 +692,12 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
         <v>18</v>
       </c>
     </row>

--- a/data_excel/60.xlsx
+++ b/data_excel/60.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AI_DATA\excel\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AI_DATA\Revise5\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -542,7 +542,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -614,8 +614,8 @@
       <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
-        <v>29</v>
+      <c r="C4" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
